--- a/base silla label.xlsx
+++ b/base silla label.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauLDaViD\Documents\ACTIVIDADES OCT2016-DIC2016\UTN\INVESTIGACION\INTERCON 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas\Arduino\Embebidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F46940EB358DE543D8C0BB4EA82166486DABE1EA" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{51716255-7520-4B92-AF5A-DD25834011BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B3471-065E-4C84-8225-01779BFF4A56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="9">
   <si>
     <t>s1</t>
   </si>
@@ -58,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +78,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -116,6 +129,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,18 +447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E209" sqref="E190:E209"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" style="7"/>
+    <col min="5" max="5" width="11.5546875" style="7"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>431</v>
       </c>
@@ -475,8 +492,12 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="str">
+        <f>CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
+        <v>{431,243,470,3,1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>396</v>
       </c>
@@ -492,8 +513,12 @@
       <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE("{",A3,",",B3,",",C3,",",D3,",",E3,"}",",")</f>
+        <v>{396,247,474,3,1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>430</v>
       </c>
@@ -509,8 +534,12 @@
       <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{430,237,416,2,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>464</v>
       </c>
@@ -526,8 +555,12 @@
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{464,255,314,3,1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>431</v>
       </c>
@@ -543,8 +576,12 @@
       <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{431,221,363,2,1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>502</v>
       </c>
@@ -560,8 +597,12 @@
       <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{502,261,246,2,1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>503</v>
       </c>
@@ -577,8 +618,12 @@
       <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{503,259,251,1,1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>506</v>
       </c>
@@ -594,8 +639,12 @@
       <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>{506,261,222,3,1},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>489</v>
       </c>
@@ -611,8 +660,12 @@
       <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>{489,258,323,3,1},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>498</v>
       </c>
@@ -628,8 +681,12 @@
       <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>{498,246,350,2,1},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>487</v>
       </c>
@@ -645,8 +702,12 @@
       <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>{487,266,327,2,1},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>486</v>
       </c>
@@ -662,8 +723,12 @@
       <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>{486,264,352,3,1},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>399</v>
       </c>
@@ -679,8 +744,12 @@
       <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>{399,277,418,5,1},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>503</v>
       </c>
@@ -696,8 +765,12 @@
       <c r="E15" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>{503,265,413,4,1},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>476</v>
       </c>
@@ -713,8 +786,12 @@
       <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>{476,251,461,3,1},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>408</v>
       </c>
@@ -730,8 +807,12 @@
       <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>{408,203,372,3,1},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>425</v>
       </c>
@@ -747,8 +828,12 @@
       <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>{425,208,361,1,1},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>472</v>
       </c>
@@ -764,8 +849,12 @@
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>{472,270,382,2,1},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>592</v>
       </c>
@@ -781,8 +870,12 @@
       <c r="E20" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>{592,204,290,2,1},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>627</v>
       </c>
@@ -798,8 +891,12 @@
       <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>{627,252,197,2,1},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>0</v>
       </c>
@@ -815,8 +912,12 @@
       <c r="E22" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,278,341,6,1},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -832,8 +933,12 @@
       <c r="E23" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,278,378,4,1},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>351</v>
       </c>
@@ -849,8 +954,12 @@
       <c r="E24" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>{351,470,397,4,1},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>650</v>
       </c>
@@ -866,8 +975,12 @@
       <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>{650,345,181,3,1},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>587</v>
       </c>
@@ -883,8 +996,12 @@
       <c r="E26" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>{587,332,198,4,1},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>578</v>
       </c>
@@ -900,8 +1017,12 @@
       <c r="E27" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>{578,340,178,4,1},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>594</v>
       </c>
@@ -917,8 +1038,12 @@
       <c r="E28" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>{594,357,232,5,1},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>597</v>
       </c>
@@ -934,8 +1059,12 @@
       <c r="E29" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>{597,368,242,3,1},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>502</v>
       </c>
@@ -951,8 +1080,12 @@
       <c r="E30" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>{502,262,217,4,1},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>512</v>
       </c>
@@ -968,8 +1101,12 @@
       <c r="E31" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>{512,191,315,4,1},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>526</v>
       </c>
@@ -985,8 +1122,12 @@
       <c r="E32" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>{526,245,315,4,1},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4">
         <v>529</v>
       </c>
@@ -1002,8 +1143,12 @@
       <c r="E33" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>{529,236,319,4,1},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>537</v>
       </c>
@@ -1019,8 +1164,12 @@
       <c r="E34" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>{537,253,314,3,1},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4">
         <v>541</v>
       </c>
@@ -1036,8 +1185,12 @@
       <c r="E35" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>{541,309,309,3,1},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4">
         <v>371</v>
       </c>
@@ -1053,8 +1206,12 @@
       <c r="E36" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>{371,194,334,6,1},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4">
         <v>616</v>
       </c>
@@ -1070,8 +1227,12 @@
       <c r="E37" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>{616,274,467,1,1},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>618</v>
       </c>
@@ -1087,8 +1248,12 @@
       <c r="E38" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>{618,282,469,2,1},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4">
         <v>622</v>
       </c>
@@ -1104,8 +1269,12 @@
       <c r="E39" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>{622,277,474,0,1},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>557</v>
       </c>
@@ -1121,8 +1290,12 @@
       <c r="E40" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>{557,249,451,2,1},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <v>560</v>
       </c>
@@ -1138,8 +1311,12 @@
       <c r="E41" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>{560,252,465,1,1},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>539</v>
       </c>
@@ -1155,8 +1332,12 @@
       <c r="E42" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>{539,241,456,3,1},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4">
         <v>539</v>
       </c>
@@ -1172,8 +1353,12 @@
       <c r="E43" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>{539,247,465,2,1},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>542</v>
       </c>
@@ -1189,8 +1374,12 @@
       <c r="E44" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>{542,248,468,2,1},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4">
         <v>544</v>
       </c>
@@ -1206,8 +1395,12 @@
       <c r="E45" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>{544,246,473,1,1},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>544</v>
       </c>
@@ -1223,8 +1416,12 @@
       <c r="E46" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>{544,247,472,2,1},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="4">
         <v>585</v>
       </c>
@@ -1240,8 +1437,12 @@
       <c r="E47" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>{585,277,457,1,1},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="4">
         <v>589</v>
       </c>
@@ -1257,8 +1458,12 @@
       <c r="E48" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>{589,285,464,2,1},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>595</v>
       </c>
@@ -1274,8 +1479,12 @@
       <c r="E49" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>{595,320,461,2,1},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4">
         <v>561</v>
       </c>
@@ -1291,8 +1500,12 @@
       <c r="E50" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>{561,238,478,2,1},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="4">
         <v>563</v>
       </c>
@@ -1308,8 +1521,12 @@
       <c r="E51" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>{563,241,483,2,1},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="4">
         <v>441</v>
       </c>
@@ -1325,8 +1542,12 @@
       <c r="E52" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>{441,193,309,6,1},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="4">
         <v>401</v>
       </c>
@@ -1342,8 +1563,12 @@
       <c r="E53" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>{401,172,309,4,1},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="4">
         <v>439</v>
       </c>
@@ -1359,8 +1584,12 @@
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>{439,196,340,2,1},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>457</v>
       </c>
@@ -1376,8 +1605,12 @@
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>{457,198,351,2,1},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="4">
         <v>459</v>
       </c>
@@ -1393,8 +1626,12 @@
       <c r="E56" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>{459,196,352,2,1},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="4">
         <v>442</v>
       </c>
@@ -1410,8 +1647,12 @@
       <c r="E57" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>{442,181,290,2,1},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="4">
         <v>510</v>
       </c>
@@ -1427,8 +1668,12 @@
       <c r="E58" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>{510,355,116,2,1},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="4">
         <v>496</v>
       </c>
@@ -1444,8 +1689,12 @@
       <c r="E59" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>{496,323,123,2,1},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="4">
         <v>516</v>
       </c>
@@ -1461,8 +1710,12 @@
       <c r="E60" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>{516,341,134,4,1},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="4">
         <v>522</v>
       </c>
@@ -1478,8 +1731,12 @@
       <c r="E61" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>{522,356,157,3,1},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="4">
         <v>526</v>
       </c>
@@ -1495,8 +1752,12 @@
       <c r="E62" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>{526,343,176,2,1},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="4">
         <v>526</v>
       </c>
@@ -1512,8 +1773,12 @@
       <c r="E63" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>{526,341,173,2,1},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="4">
         <v>470</v>
       </c>
@@ -1529,8 +1794,12 @@
       <c r="E64" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>{470,178,113,3,1},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -1546,8 +1815,12 @@
       <c r="E65" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,625,127,1,1},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -1563,8 +1836,12 @@
       <c r="E66" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,213,154,0,1},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -1580,8 +1857,12 @@
       <c r="E67" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="1">CONCATENATE("{",A67,",",B67,",",C67,",",D67,",",E67,"}",",")</f>
+        <v>{0,263,243,0,1},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="4">
         <v>0</v>
       </c>
@@ -1597,8 +1878,12 @@
       <c r="E68" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,250,333,0,1},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -1614,8 +1899,12 @@
       <c r="E69" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,251,337,0,1},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="4">
         <v>0</v>
       </c>
@@ -1631,8 +1920,12 @@
       <c r="E70" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,250,347,0,1},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -1648,8 +1941,12 @@
       <c r="E71" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,250,340,0,1},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -1665,8 +1962,12 @@
       <c r="E72" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>{1,251,349,0,1},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="4">
         <v>353</v>
       </c>
@@ -1682,8 +1983,12 @@
       <c r="E73" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>{353,230,45,0,1},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="4">
         <v>316</v>
       </c>
@@ -1699,8 +2004,12 @@
       <c r="E74" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>{316,0,120,0,1},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="4">
         <v>319</v>
       </c>
@@ -1716,8 +2025,12 @@
       <c r="E75" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>{319,0,107,0,1},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="4">
         <v>589</v>
       </c>
@@ -1733,8 +2046,12 @@
       <c r="E76" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>{589,413,309,5,1},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="4">
         <v>583</v>
       </c>
@@ -1750,8 +2067,12 @@
       <c r="E77" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>{583,413,331,2,1},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="4">
         <v>591</v>
       </c>
@@ -1767,8 +2088,12 @@
       <c r="E78" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>{591,447,303,5,1},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="4">
         <v>603</v>
       </c>
@@ -1784,8 +2109,12 @@
       <c r="E79" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>{603,456,292,3,1},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="4">
         <v>620</v>
       </c>
@@ -1801,8 +2130,12 @@
       <c r="E80" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>{620,461,294,1,1},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="4">
         <v>66</v>
       </c>
@@ -1818,8 +2151,12 @@
       <c r="E81" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>{66,525,302,5,1},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="4">
         <v>0</v>
       </c>
@@ -1835,8 +2172,12 @@
       <c r="E82" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,568,264,2,1},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="4">
         <v>0</v>
       </c>
@@ -1852,8 +2193,12 @@
       <c r="E83" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,568,275,3,1},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="4">
         <v>492</v>
       </c>
@@ -1869,8 +2214,12 @@
       <c r="E84" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>{492,324,249,3,1},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="4">
         <v>482</v>
       </c>
@@ -1886,8 +2235,12 @@
       <c r="E85" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15">
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>{482,328,283,1,1},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="4">
         <v>554</v>
       </c>
@@ -1903,8 +2256,12 @@
       <c r="E86" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>{554,0,300,3,1},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="4">
         <v>657</v>
       </c>
@@ -1920,8 +2277,12 @@
       <c r="E87" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="15">
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>{657,0,255,3,1},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="4">
         <v>664</v>
       </c>
@@ -1937,8 +2298,12 @@
       <c r="E88" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>{664,0,296,6,1},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="4">
         <v>667</v>
       </c>
@@ -1954,8 +2319,12 @@
       <c r="E89" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>{667,0,310,1,1},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="4">
         <v>595</v>
       </c>
@@ -1971,8 +2340,12 @@
       <c r="E90" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15">
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>{595,385,0,27,2},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="4">
         <v>621</v>
       </c>
@@ -1988,8 +2361,12 @@
       <c r="E91" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>{621,422,0,31,2},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="4">
         <v>616</v>
       </c>
@@ -2005,8 +2382,12 @@
       <c r="E92" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>{616,415,0,27,2},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="4">
         <v>570</v>
       </c>
@@ -2022,8 +2403,12 @@
       <c r="E93" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>{570,393,0,25,2},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="4">
         <v>595</v>
       </c>
@@ -2039,8 +2424,12 @@
       <c r="E94" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>{595,414,0,26,2},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="4">
         <v>610</v>
       </c>
@@ -2056,8 +2445,12 @@
       <c r="E95" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>{610,416,0,27,2},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="4">
         <v>616</v>
       </c>
@@ -2073,8 +2466,12 @@
       <c r="E96" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>{616,414,0,28,2},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="4">
         <v>627</v>
       </c>
@@ -2090,8 +2487,12 @@
       <c r="E97" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>{627,416,0,29,2},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="4">
         <v>629</v>
       </c>
@@ -2107,8 +2508,12 @@
       <c r="E98" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>{629,415,0,30,2},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="4">
         <v>612</v>
       </c>
@@ -2124,8 +2529,12 @@
       <c r="E99" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>{612,356,0,25,2},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="4">
         <v>562</v>
       </c>
@@ -2141,8 +2550,12 @@
       <c r="E100" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>{562,387,0,22,2},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="4">
         <v>590</v>
       </c>
@@ -2158,8 +2571,12 @@
       <c r="E101" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>{590,395,0,23,2},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="4">
         <v>610</v>
       </c>
@@ -2175,8 +2592,12 @@
       <c r="E102" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>{610,428,0,23,2},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="4">
         <v>603</v>
       </c>
@@ -2192,8 +2613,12 @@
       <c r="E103" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>{603,417,0,22,2},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="4">
         <v>578</v>
       </c>
@@ -2209,8 +2634,12 @@
       <c r="E104" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>{578,422,0,25,2},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="4">
         <v>761</v>
       </c>
@@ -2226,8 +2655,12 @@
       <c r="E105" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>{761,660,0,27,2},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="4">
         <v>627</v>
       </c>
@@ -2243,8 +2676,12 @@
       <c r="E106" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>{627,465,0,29,2},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="4">
         <v>704</v>
       </c>
@@ -2260,8 +2697,12 @@
       <c r="E107" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>{704,577,0,24,2},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="4">
         <v>705</v>
       </c>
@@ -2277,8 +2718,12 @@
       <c r="E108" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>{705,558,0,25,2},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="4">
         <v>724</v>
       </c>
@@ -2294,8 +2739,12 @@
       <c r="E109" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>{724,524,0,24,2},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="4">
         <v>701</v>
       </c>
@@ -2311,8 +2760,12 @@
       <c r="E110" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>{701,575,0,27,2},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="4">
         <v>636</v>
       </c>
@@ -2328,8 +2781,12 @@
       <c r="E111" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>{636,547,1,27,2},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="4">
         <v>698</v>
       </c>
@@ -2345,8 +2802,12 @@
       <c r="E112" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>{698,622,0,26,2},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="4">
         <v>716</v>
       </c>
@@ -2362,8 +2823,12 @@
       <c r="E113" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>{716,594,1,25,2},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="4">
         <v>729</v>
       </c>
@@ -2379,8 +2844,12 @@
       <c r="E114" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v>{729,633,2,26,2},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="4">
         <v>733</v>
       </c>
@@ -2396,8 +2865,12 @@
       <c r="E115" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v>{733,632,0,24,2},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="4">
         <v>770</v>
       </c>
@@ -2413,8 +2886,12 @@
       <c r="E116" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>{770,586,3,23,2},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="4">
         <v>778</v>
       </c>
@@ -2430,8 +2907,12 @@
       <c r="E117" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>{778,575,0,24,2},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="4">
         <v>778</v>
       </c>
@@ -2447,8 +2928,12 @@
       <c r="E118" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v>{778,573,0,24,2},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="4">
         <v>452</v>
       </c>
@@ -2464,8 +2949,12 @@
       <c r="E119" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v>{452,197,0,20,2},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="4">
         <v>400</v>
       </c>
@@ -2481,8 +2970,12 @@
       <c r="E120" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>{400,265,1,18,2},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="4">
         <v>449</v>
       </c>
@@ -2498,8 +2991,12 @@
       <c r="E121" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v>{449,210,0,22,2},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="4">
         <v>482</v>
       </c>
@@ -2515,8 +3012,12 @@
       <c r="E122" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>{482,249,0,22,2},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="4">
         <v>464</v>
       </c>
@@ -2532,8 +3033,12 @@
       <c r="E123" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>{464,212,0,23,2},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="4">
         <v>466</v>
       </c>
@@ -2549,8 +3054,12 @@
       <c r="E124" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v>{466,209,0,24,2},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="4">
         <v>475</v>
       </c>
@@ -2566,8 +3075,12 @@
       <c r="E125" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v>{475,209,0,23,2},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="4">
         <v>443</v>
       </c>
@@ -2583,8 +3096,12 @@
       <c r="E126" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>{443,198,0,23,2},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="4">
         <v>382</v>
       </c>
@@ -2600,8 +3117,12 @@
       <c r="E127" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v>{382,168,0,19,2},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="4">
         <v>382</v>
       </c>
@@ -2617,8 +3138,12 @@
       <c r="E128" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v>{382,221,0,19,2},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="4">
         <v>585</v>
       </c>
@@ -2634,8 +3159,12 @@
       <c r="E129" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v>{585,391,0,19,2},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="4">
         <v>586</v>
       </c>
@@ -2651,8 +3180,12 @@
       <c r="E130" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v>{586,388,0,20,2},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="4">
         <v>585</v>
       </c>
@@ -2668,8 +3201,12 @@
       <c r="E131" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F194" si="2">CONCATENATE("{",A131,",",B131,",",C131,",",D131,",",E131,"}",",")</f>
+        <v>{585,384,0,20,2},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="4">
         <v>595</v>
       </c>
@@ -2685,8 +3222,12 @@
       <c r="E132" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="str">
+        <f t="shared" si="2"/>
+        <v>{595,395,0,17,2},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="4">
         <v>611</v>
       </c>
@@ -2702,8 +3243,12 @@
       <c r="E133" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>{611,380,0,21,2},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="4">
         <v>612</v>
       </c>
@@ -2719,8 +3264,12 @@
       <c r="E134" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>{612,376,0,20,2},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="4">
         <v>591</v>
       </c>
@@ -2736,8 +3285,12 @@
       <c r="E135" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>{591,365,0,25,2},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="4">
         <v>589</v>
       </c>
@@ -2753,8 +3306,12 @@
       <c r="E136" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>{589,360,0,24,2},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="4">
         <v>513</v>
       </c>
@@ -2770,8 +3327,12 @@
       <c r="E137" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>{513,270,0,17,2},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="4">
         <v>465</v>
       </c>
@@ -2787,8 +3348,12 @@
       <c r="E138" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>{465,278,0,18,2},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="4">
         <v>483</v>
       </c>
@@ -2804,8 +3369,12 @@
       <c r="E139" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>{483,270,0,17,2},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="4">
         <v>471</v>
       </c>
@@ -2821,8 +3390,12 @@
       <c r="E140" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>{471,261,0,17,2},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="4">
         <v>475</v>
       </c>
@@ -2838,8 +3411,12 @@
       <c r="E141" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>{475,251,1,18,2},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="4">
         <v>744</v>
       </c>
@@ -2855,8 +3432,12 @@
       <c r="E142" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>{744,319,0,20,2},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="4">
         <v>748</v>
       </c>
@@ -2872,8 +3453,12 @@
       <c r="E143" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v>{748,311,0,19,2},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="4">
         <v>768</v>
       </c>
@@ -2889,8 +3474,12 @@
       <c r="E144" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>{768,357,0,19,2},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="4">
         <v>765</v>
       </c>
@@ -2906,8 +3495,12 @@
       <c r="E145" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>{765,426,0,17,2},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="4">
         <v>827</v>
       </c>
@@ -2923,8 +3516,12 @@
       <c r="E146" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v>{827,565,0,22,2},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="4">
         <v>814</v>
       </c>
@@ -2940,8 +3537,12 @@
       <c r="E147" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v>{814,349,0,26,2},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="4">
         <v>799</v>
       </c>
@@ -2957,8 +3558,12 @@
       <c r="E148" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>{799,410,0,26,2},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="4">
         <v>802</v>
       </c>
@@ -2974,8 +3579,12 @@
       <c r="E149" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>{802,401,0,26,2},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="4">
         <v>819</v>
       </c>
@@ -2991,8 +3600,12 @@
       <c r="E150" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>{819,433,0,27,2},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="4">
         <v>820</v>
       </c>
@@ -3008,8 +3621,12 @@
       <c r="E151" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>{820,383,0,28,2},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="4">
         <v>816</v>
       </c>
@@ -3025,8 +3642,12 @@
       <c r="E152" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v>{816,386,0,27,2},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="4">
         <v>821</v>
       </c>
@@ -3042,8 +3663,12 @@
       <c r="E153" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v>{821,387,0,26,2},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="4">
         <v>820</v>
       </c>
@@ -3059,8 +3684,12 @@
       <c r="E154" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v>{820,374,0,26,2},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="4">
         <v>816</v>
       </c>
@@ -3076,8 +3705,12 @@
       <c r="E155" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>{816,393,0,26,2},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="4">
         <v>828</v>
       </c>
@@ -3093,8 +3726,12 @@
       <c r="E156" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v>{828,444,0,26,2},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="4">
         <v>736</v>
       </c>
@@ -3110,8 +3747,12 @@
       <c r="E157" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v>{736,551,0,33,2},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="4">
         <v>739</v>
       </c>
@@ -3127,8 +3768,12 @@
       <c r="E158" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>{739,529,0,32,2},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="4">
         <v>735</v>
       </c>
@@ -3144,8 +3789,12 @@
       <c r="E159" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="str">
+        <f t="shared" si="2"/>
+        <v>{735,532,0,34,2},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="4">
         <v>737</v>
       </c>
@@ -3161,8 +3810,12 @@
       <c r="E160" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>{737,529,0,37,2},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="4">
         <v>739</v>
       </c>
@@ -3178,8 +3831,12 @@
       <c r="E161" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>{739,522,1,35,2},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="4">
         <v>775</v>
       </c>
@@ -3195,8 +3852,12 @@
       <c r="E162" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>{775,490,2,31,2},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="4">
         <v>756</v>
       </c>
@@ -3212,8 +3873,12 @@
       <c r="E163" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="str">
+        <f t="shared" si="2"/>
+        <v>{756,531,0,30,2},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="4">
         <v>728</v>
       </c>
@@ -3229,8 +3894,12 @@
       <c r="E164" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="str">
+        <f t="shared" si="2"/>
+        <v>{728,545,0,33,2},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="4">
         <v>738</v>
       </c>
@@ -3246,8 +3915,12 @@
       <c r="E165" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="str">
+        <f t="shared" si="2"/>
+        <v>{738,540,0,33,2},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="4">
         <v>730</v>
       </c>
@@ -3263,8 +3936,12 @@
       <c r="E166" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="str">
+        <f t="shared" si="2"/>
+        <v>{730,539,0,33,2},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="4">
         <v>733</v>
       </c>
@@ -3280,8 +3957,12 @@
       <c r="E167" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v>{733,543,0,32,2},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="4">
         <v>734</v>
       </c>
@@ -3297,8 +3978,12 @@
       <c r="E168" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v>{734,543,0,34,2},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="4">
         <v>733</v>
       </c>
@@ -3314,8 +3999,12 @@
       <c r="E169" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v>{733,544,0,32,2},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="4">
         <v>731</v>
       </c>
@@ -3331,8 +4020,12 @@
       <c r="E170" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v>{731,546,1,32,2},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="4">
         <v>733</v>
       </c>
@@ -3348,8 +4041,12 @@
       <c r="E171" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v>{733,548,0,33,2},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="4">
         <v>735</v>
       </c>
@@ -3365,8 +4062,12 @@
       <c r="E172" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v>{735,548,0,33,2},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="4">
         <v>657</v>
       </c>
@@ -3382,8 +4083,12 @@
       <c r="E173" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v>{657,435,4,24,2},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="4">
         <v>660</v>
       </c>
@@ -3399,8 +4104,12 @@
       <c r="E174" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v>{660,440,3,26,2},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="4">
         <v>659</v>
       </c>
@@ -3416,8 +4125,12 @@
       <c r="E175" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="str">
+        <f t="shared" si="2"/>
+        <v>{659,441,4,25,2},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="4">
         <v>656</v>
       </c>
@@ -3433,8 +4146,12 @@
       <c r="E176" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="str">
+        <f t="shared" si="2"/>
+        <v>{656,447,4,25,2},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="4">
         <v>630</v>
       </c>
@@ -3450,8 +4167,12 @@
       <c r="E177" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="str">
+        <f t="shared" si="2"/>
+        <v>{630,499,5,79,2},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="4">
         <v>667</v>
       </c>
@@ -3467,8 +4188,12 @@
       <c r="E178" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="str">
+        <f t="shared" si="2"/>
+        <v>{667,507,1,28,2},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="4">
         <v>622</v>
       </c>
@@ -3484,8 +4209,12 @@
       <c r="E179" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="str">
+        <f t="shared" si="2"/>
+        <v>{622,524,2,28,2},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="4">
         <v>634</v>
       </c>
@@ -3501,8 +4230,12 @@
       <c r="E180" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="str">
+        <f t="shared" si="2"/>
+        <v>{634,533,18,28,2},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="4">
         <v>632</v>
       </c>
@@ -3518,8 +4251,12 @@
       <c r="E181" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" t="str">
+        <f t="shared" si="2"/>
+        <v>{632,588,28,27,2},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="4">
         <v>632</v>
       </c>
@@ -3535,8 +4272,12 @@
       <c r="E182" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="str">
+        <f t="shared" si="2"/>
+        <v>{632,474,10,24,2},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="4">
         <v>700</v>
       </c>
@@ -3552,8 +4293,12 @@
       <c r="E183" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="str">
+        <f t="shared" si="2"/>
+        <v>{700,507,20,23,2},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="4">
         <v>677</v>
       </c>
@@ -3569,8 +4314,12 @@
       <c r="E184" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="str">
+        <f t="shared" si="2"/>
+        <v>{677,543,10,26,2},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="4">
         <v>609</v>
       </c>
@@ -3586,8 +4335,12 @@
       <c r="E185" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="str">
+        <f t="shared" si="2"/>
+        <v>{609,557,0,24,2},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="4">
         <v>606</v>
       </c>
@@ -3603,8 +4356,12 @@
       <c r="E186" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="str">
+        <f t="shared" si="2"/>
+        <v>{606,571,0,24,2},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="4">
         <v>612</v>
       </c>
@@ -3620,8 +4377,12 @@
       <c r="E187" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="str">
+        <f t="shared" si="2"/>
+        <v>{612,574,0,22,2},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="4">
         <v>646</v>
       </c>
@@ -3637,8 +4398,12 @@
       <c r="E188" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="str">
+        <f t="shared" si="2"/>
+        <v>{646,556,0,26,2},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="4">
         <v>649</v>
       </c>
@@ -3654,8 +4419,12 @@
       <c r="E189" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="str">
+        <f t="shared" si="2"/>
+        <v>{649,583,0,24,2},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="4">
         <v>508</v>
       </c>
@@ -3671,8 +4440,12 @@
       <c r="E190" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="str">
+        <f t="shared" si="2"/>
+        <v>{508,225,404,15,3},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="4">
         <v>511</v>
       </c>
@@ -3688,8 +4461,12 @@
       <c r="E191" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="str">
+        <f t="shared" si="2"/>
+        <v>{511,222,404,15,3},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="4">
         <v>531</v>
       </c>
@@ -3705,8 +4482,12 @@
       <c r="E192" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="str">
+        <f t="shared" si="2"/>
+        <v>{531,297,409,9,3},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="4">
         <v>422</v>
       </c>
@@ -3722,8 +4503,12 @@
       <c r="E193" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="str">
+        <f t="shared" si="2"/>
+        <v>{422,119,415,17,3},</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="4">
         <v>469</v>
       </c>
@@ -3739,8 +4524,12 @@
       <c r="E194" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="str">
+        <f t="shared" si="2"/>
+        <v>{469,77,334,9,3},</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="4">
         <v>534</v>
       </c>
@@ -3756,8 +4545,12 @@
       <c r="E195" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F258" si="3">CONCATENATE("{",A195,",",B195,",",C195,",",D195,",",E195,"}",",")</f>
+        <v>{534,157,407,18,3},</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="4">
         <v>539</v>
       </c>
@@ -3773,8 +4566,12 @@
       <c r="E196" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="str">
+        <f t="shared" si="3"/>
+        <v>{539,170,410,17,3},</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="4">
         <v>546</v>
       </c>
@@ -3790,8 +4587,12 @@
       <c r="E197" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="str">
+        <f t="shared" si="3"/>
+        <v>{546,66,395,11,3},</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="4">
         <v>412</v>
       </c>
@@ -3807,8 +4608,12 @@
       <c r="E198" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="str">
+        <f t="shared" si="3"/>
+        <v>{412,42,296,11,3},</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="4">
         <v>549</v>
       </c>
@@ -3824,8 +4629,12 @@
       <c r="E199" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="str">
+        <f t="shared" si="3"/>
+        <v>{549,106,260,12,3},</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="4">
         <v>575</v>
       </c>
@@ -3841,8 +4650,12 @@
       <c r="E200" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" t="str">
+        <f t="shared" si="3"/>
+        <v>{575,121,247,11,3},</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="4">
         <v>539</v>
       </c>
@@ -3858,8 +4671,12 @@
       <c r="E201" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="str">
+        <f t="shared" si="3"/>
+        <v>{539,91,372,8,3},</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="4">
         <v>601</v>
       </c>
@@ -3875,8 +4692,12 @@
       <c r="E202" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" t="str">
+        <f t="shared" si="3"/>
+        <v>{601,130,255,14,3},</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="4">
         <v>584</v>
       </c>
@@ -3892,8 +4713,12 @@
       <c r="E203" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" t="str">
+        <f t="shared" si="3"/>
+        <v>{584,107,351,10,3},</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="4">
         <v>600</v>
       </c>
@@ -3909,8 +4734,12 @@
       <c r="E204" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="str">
+        <f t="shared" si="3"/>
+        <v>{600,183,289,20,3},</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="4">
         <v>649</v>
       </c>
@@ -3926,8 +4755,12 @@
       <c r="E205" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" t="str">
+        <f t="shared" si="3"/>
+        <v>{649,308,251,18,3},</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="4">
         <v>625</v>
       </c>
@@ -3943,8 +4776,12 @@
       <c r="E206" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="str">
+        <f t="shared" si="3"/>
+        <v>{625,350,238,17,3},</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="4">
         <v>547</v>
       </c>
@@ -3960,8 +4797,12 @@
       <c r="E207" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" t="str">
+        <f t="shared" si="3"/>
+        <v>{547,282,352,21,3},</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="4">
         <v>503</v>
       </c>
@@ -3977,8 +4818,12 @@
       <c r="E208" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" t="str">
+        <f t="shared" si="3"/>
+        <v>{503,340,389,22,3},</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="4">
         <v>447</v>
       </c>
@@ -3994,8 +4839,12 @@
       <c r="E209" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="str">
+        <f t="shared" si="3"/>
+        <v>{447,392,326,24,3},</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="4">
         <v>648</v>
       </c>
@@ -4011,8 +4860,12 @@
       <c r="E210" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" t="str">
+        <f t="shared" si="3"/>
+        <v>{648,548,0,2,4},</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="4">
         <v>638</v>
       </c>
@@ -4028,8 +4881,12 @@
       <c r="E211" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="str">
+        <f t="shared" si="3"/>
+        <v>{638,548,0,0,4},</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="4">
         <v>625</v>
       </c>
@@ -4045,8 +4902,12 @@
       <c r="E212" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" t="str">
+        <f t="shared" si="3"/>
+        <v>{625,567,0,0,4},</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="4">
         <v>613</v>
       </c>
@@ -4062,8 +4923,12 @@
       <c r="E213" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" t="str">
+        <f t="shared" si="3"/>
+        <v>{613,554,0,0,4},</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="4">
         <v>616</v>
       </c>
@@ -4079,8 +4944,12 @@
       <c r="E214" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" t="str">
+        <f t="shared" si="3"/>
+        <v>{616,544,0,0,4},</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="4">
         <v>670</v>
       </c>
@@ -4096,8 +4965,12 @@
       <c r="E215" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" t="str">
+        <f t="shared" si="3"/>
+        <v>{670,559,0,0,4},</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="4">
         <v>672</v>
       </c>
@@ -4113,8 +4986,12 @@
       <c r="E216" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" t="str">
+        <f t="shared" si="3"/>
+        <v>{672,561,0,1,4},</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="4">
         <v>675</v>
       </c>
@@ -4130,8 +5007,12 @@
       <c r="E217" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" t="str">
+        <f t="shared" si="3"/>
+        <v>{675,566,0,1,4},</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="4">
         <v>678</v>
       </c>
@@ -4147,8 +5028,12 @@
       <c r="E218" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" t="str">
+        <f t="shared" si="3"/>
+        <v>{678,572,0,1,4},</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="4">
         <v>673</v>
       </c>
@@ -4164,8 +5049,12 @@
       <c r="E219" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" t="str">
+        <f t="shared" si="3"/>
+        <v>{673,582,0,1,4},</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="4">
         <v>669</v>
       </c>
@@ -4181,8 +5070,12 @@
       <c r="E220" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" t="str">
+        <f t="shared" si="3"/>
+        <v>{669,581,0,2,4},</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="4">
         <v>589</v>
       </c>
@@ -4198,8 +5091,12 @@
       <c r="E221" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" t="str">
+        <f t="shared" si="3"/>
+        <v>{589,624,0,0,4},</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="4">
         <v>670</v>
       </c>
@@ -4215,8 +5112,12 @@
       <c r="E222" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" t="str">
+        <f t="shared" si="3"/>
+        <v>{670,611,0,0,4},</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="4">
         <v>679</v>
       </c>
@@ -4232,8 +5133,12 @@
       <c r="E223" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" t="str">
+        <f t="shared" si="3"/>
+        <v>{679,616,0,0,4},</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="4">
         <v>684</v>
       </c>
@@ -4249,8 +5154,12 @@
       <c r="E224" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" t="str">
+        <f t="shared" si="3"/>
+        <v>{684,616,0,0,4},</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="4">
         <v>680</v>
       </c>
@@ -4266,8 +5175,12 @@
       <c r="E225" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" t="str">
+        <f t="shared" si="3"/>
+        <v>{680,615,0,0,4},</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="4">
         <v>684</v>
       </c>
@@ -4283,8 +5196,12 @@
       <c r="E226" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" t="str">
+        <f t="shared" si="3"/>
+        <v>{684,618,0,0,4},</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="4">
         <v>693</v>
       </c>
@@ -4300,8 +5217,12 @@
       <c r="E227" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" t="str">
+        <f t="shared" si="3"/>
+        <v>{693,633,0,0,4},</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="4">
         <v>677</v>
       </c>
@@ -4317,8 +5238,12 @@
       <c r="E228" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" t="str">
+        <f t="shared" si="3"/>
+        <v>{677,628,0,0,4},</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="4">
         <v>683</v>
       </c>
@@ -4334,8 +5259,12 @@
       <c r="E229" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" t="str">
+        <f t="shared" si="3"/>
+        <v>{683,629,0,0,4},</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="4">
         <v>686</v>
       </c>
@@ -4351,8 +5280,12 @@
       <c r="E230" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" t="str">
+        <f t="shared" si="3"/>
+        <v>{686,625,0,2,4},</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="4">
         <v>623</v>
       </c>
@@ -4368,8 +5301,12 @@
       <c r="E231" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v>{623,562,0,0,4},</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="4">
         <v>571</v>
       </c>
@@ -4385,8 +5322,12 @@
       <c r="E232" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v>{571,488,0,0,4},</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="4">
         <v>611</v>
       </c>
@@ -4402,8 +5343,12 @@
       <c r="E233" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" t="str">
+        <f t="shared" si="3"/>
+        <v>{611,482,0,0,4},</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="4">
         <v>607</v>
       </c>
@@ -4419,8 +5364,12 @@
       <c r="E234" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v>{607,492,0,0,4},</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="4">
         <v>617</v>
       </c>
@@ -4436,8 +5385,12 @@
       <c r="E235" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v>{617,491,0,1,4},</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="4">
         <v>619</v>
       </c>
@@ -4453,8 +5406,12 @@
       <c r="E236" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v>{619,496,0,1,4},</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="4">
         <v>617</v>
       </c>
@@ -4470,8 +5427,12 @@
       <c r="E237" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v>{617,505,0,1,4},</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="4">
         <v>624</v>
       </c>
@@ -4487,8 +5448,12 @@
       <c r="E238" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v>{624,485,0,0,4},</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="4">
         <v>686</v>
       </c>
@@ -4504,8 +5469,12 @@
       <c r="E239" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v>{686,548,0,1,4},</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="4">
         <v>686</v>
       </c>
@@ -4521,8 +5490,12 @@
       <c r="E240" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v>{686,560,0,0,4},</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="4">
         <v>689</v>
       </c>
@@ -4538,8 +5511,12 @@
       <c r="E241" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v>{689,561,0,0,4},</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="4">
         <v>689</v>
       </c>
@@ -4555,8 +5532,12 @@
       <c r="E242" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v>{689,561,1,0,4},</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="4">
         <v>690</v>
       </c>
@@ -4572,8 +5553,12 @@
       <c r="E243" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v>{690,562,0,0,4},</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="4">
         <v>676</v>
       </c>
@@ -4589,8 +5574,12 @@
       <c r="E244" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v>{676,575,0,0,4},</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="4">
         <v>683</v>
       </c>
@@ -4606,8 +5595,12 @@
       <c r="E245" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v>{683,590,0,0,4},</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="4">
         <v>685</v>
       </c>
@@ -4623,8 +5616,12 @@
       <c r="E246" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v>{685,595,0,0,4},</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="4">
         <v>688</v>
       </c>
@@ -4640,8 +5637,12 @@
       <c r="E247" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247" t="str">
+        <f t="shared" si="3"/>
+        <v>{688,569,0,0,4},</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="4">
         <v>688</v>
       </c>
@@ -4657,8 +5658,12 @@
       <c r="E248" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" t="str">
+        <f t="shared" si="3"/>
+        <v>{688,583,0,0,4},</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="4">
         <v>688</v>
       </c>
@@ -4674,8 +5679,12 @@
       <c r="E249" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v>{688,583,0,0,4},</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="4">
         <v>689</v>
       </c>
@@ -4691,8 +5700,12 @@
       <c r="E250" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v>{689,583,0,0,4},</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="4">
         <v>690</v>
       </c>
@@ -4708,8 +5721,12 @@
       <c r="E251" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v>{690,584,0,0,4},</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="4">
         <v>689</v>
       </c>
@@ -4725,8 +5742,12 @@
       <c r="E252" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v>{689,599,0,0,4},</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="4">
         <v>692</v>
       </c>
@@ -4742,8 +5763,12 @@
       <c r="E253" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v>{692,600,0,0,4},</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="4">
         <v>693</v>
       </c>
@@ -4759,8 +5784,12 @@
       <c r="E254" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" t="str">
+        <f t="shared" si="3"/>
+        <v>{693,599,0,0,4},</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="4">
         <v>694</v>
       </c>
@@ -4776,8 +5805,12 @@
       <c r="E255" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" t="str">
+        <f t="shared" si="3"/>
+        <v>{694,602,0,0,4},</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="4">
         <v>571</v>
       </c>
@@ -4793,8 +5826,12 @@
       <c r="E256" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" t="str">
+        <f t="shared" si="3"/>
+        <v>{571,322,0,0,4},</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="4">
         <v>581</v>
       </c>
@@ -4810,8 +5847,12 @@
       <c r="E257" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257" t="str">
+        <f t="shared" si="3"/>
+        <v>{581,353,0,0,4},</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="4">
         <v>555</v>
       </c>
@@ -4827,8 +5868,12 @@
       <c r="E258" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258" t="str">
+        <f t="shared" si="3"/>
+        <v>{555,356,0,0,4},</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="4">
         <v>576</v>
       </c>
@@ -4844,8 +5889,12 @@
       <c r="E259" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259" t="str">
+        <f t="shared" ref="F259:F309" si="4">CONCATENATE("{",A259,",",B259,",",C259,",",D259,",",E259,"}",",")</f>
+        <v>{576,356,0,0,4},</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="4">
         <v>578</v>
       </c>
@@ -4861,8 +5910,12 @@
       <c r="E260" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260" t="str">
+        <f t="shared" si="4"/>
+        <v>{578,362,0,0,4},</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="4">
         <v>585</v>
       </c>
@@ -4878,8 +5931,12 @@
       <c r="E261" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261" t="str">
+        <f t="shared" si="4"/>
+        <v>{585,355,0,0,4},</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="4">
         <v>521</v>
       </c>
@@ -4895,8 +5952,12 @@
       <c r="E262" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262" t="str">
+        <f t="shared" si="4"/>
+        <v>{521,328,0,0,4},</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="4">
         <v>545</v>
       </c>
@@ -4912,8 +5973,12 @@
       <c r="E263" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" t="str">
+        <f t="shared" si="4"/>
+        <v>{545,342,0,0,4},</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="4">
         <v>694</v>
       </c>
@@ -4929,8 +5994,12 @@
       <c r="E264" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264" t="str">
+        <f t="shared" si="4"/>
+        <v>{694,535,0,0,4},</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="4">
         <v>701</v>
       </c>
@@ -4946,8 +6015,12 @@
       <c r="E265" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" t="str">
+        <f t="shared" si="4"/>
+        <v>{701,533,0,0,4},</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="4">
         <v>703</v>
       </c>
@@ -4963,8 +6036,12 @@
       <c r="E266" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266" t="str">
+        <f t="shared" si="4"/>
+        <v>{703,529,0,0,4},</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="4">
         <v>700</v>
       </c>
@@ -4980,8 +6057,12 @@
       <c r="E267" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267" t="str">
+        <f t="shared" si="4"/>
+        <v>{700,534,0,0,4},</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="4">
         <v>705</v>
       </c>
@@ -4997,8 +6078,12 @@
       <c r="E268" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" t="str">
+        <f t="shared" si="4"/>
+        <v>{705,540,0,0,4},</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="4">
         <v>727</v>
       </c>
@@ -5014,8 +6099,12 @@
       <c r="E269" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269" t="str">
+        <f t="shared" si="4"/>
+        <v>{727,610,0,0,4},</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="4">
         <v>750</v>
       </c>
@@ -5031,8 +6120,12 @@
       <c r="E270" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270" t="str">
+        <f t="shared" si="4"/>
+        <v>{750,589,0,0,4},</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="4">
         <v>750</v>
       </c>
@@ -5048,8 +6141,12 @@
       <c r="E271" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" t="str">
+        <f t="shared" si="4"/>
+        <v>{750,576,0,0,4},</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="4">
         <v>756</v>
       </c>
@@ -5065,8 +6162,12 @@
       <c r="E272" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" t="str">
+        <f t="shared" si="4"/>
+        <v>{756,577,0,0,4},</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>727</v>
       </c>
@@ -5082,8 +6183,12 @@
       <c r="E273" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" t="str">
+        <f t="shared" si="4"/>
+        <v>{727,585,1,0,4},</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>731</v>
       </c>
@@ -5099,8 +6204,12 @@
       <c r="E274" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" t="str">
+        <f t="shared" si="4"/>
+        <v>{731,601,1,0,4},</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>668</v>
       </c>
@@ -5116,8 +6225,12 @@
       <c r="E275" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275" t="str">
+        <f t="shared" si="4"/>
+        <v>{668,608,0,0,4},</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>667</v>
       </c>
@@ -5133,8 +6246,12 @@
       <c r="E276" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276" t="str">
+        <f t="shared" si="4"/>
+        <v>{667,615,0,2,4},</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>667</v>
       </c>
@@ -5150,8 +6267,12 @@
       <c r="E277" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277" t="str">
+        <f t="shared" si="4"/>
+        <v>{667,618,0,2,4},</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>671</v>
       </c>
@@ -5167,8 +6288,12 @@
       <c r="E278" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278" t="str">
+        <f t="shared" si="4"/>
+        <v>{671,618,0,2,4},</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>671</v>
       </c>
@@ -5184,8 +6309,12 @@
       <c r="E279" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279" t="str">
+        <f t="shared" si="4"/>
+        <v>{671,619,0,2,4},</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>675</v>
       </c>
@@ -5201,8 +6330,12 @@
       <c r="E280" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280" t="str">
+        <f t="shared" si="4"/>
+        <v>{675,625,0,2,4},</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>683</v>
       </c>
@@ -5218,8 +6351,12 @@
       <c r="E281" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281" t="str">
+        <f t="shared" si="4"/>
+        <v>{683,627,0,3,4},</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>683</v>
       </c>
@@ -5235,8 +6372,12 @@
       <c r="E282" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282" t="str">
+        <f t="shared" si="4"/>
+        <v>{683,627,0,2,4},</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>681</v>
       </c>
@@ -5252,8 +6393,12 @@
       <c r="E283" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283" t="str">
+        <f t="shared" si="4"/>
+        <v>{681,627,0,2,4},</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>681</v>
       </c>
@@ -5269,8 +6414,12 @@
       <c r="E284" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284" t="str">
+        <f t="shared" si="4"/>
+        <v>{681,623,0,2,4},</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>682</v>
       </c>
@@ -5286,8 +6435,12 @@
       <c r="E285" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285" t="str">
+        <f t="shared" si="4"/>
+        <v>{682,623,0,2,4},</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>682</v>
       </c>
@@ -5303,8 +6456,12 @@
       <c r="E286" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" t="str">
+        <f t="shared" si="4"/>
+        <v>{682,623,0,2,4},</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>658</v>
       </c>
@@ -5320,8 +6477,12 @@
       <c r="E287" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287" t="str">
+        <f t="shared" si="4"/>
+        <v>{658,621,0,0,4},</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>663</v>
       </c>
@@ -5337,8 +6498,12 @@
       <c r="E288" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288" t="str">
+        <f t="shared" si="4"/>
+        <v>{663,622,0,1,4},</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>671</v>
       </c>
@@ -5354,8 +6519,12 @@
       <c r="E289" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289" t="str">
+        <f t="shared" si="4"/>
+        <v>{671,619,0,3,4},</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>678</v>
       </c>
@@ -5371,8 +6540,12 @@
       <c r="E290" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" t="str">
+        <f t="shared" si="4"/>
+        <v>{678,628,0,0,4},</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>551</v>
       </c>
@@ -5388,8 +6561,12 @@
       <c r="E291" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291" t="str">
+        <f t="shared" si="4"/>
+        <v>{551,493,9,3,4},</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>563</v>
       </c>
@@ -5405,8 +6582,12 @@
       <c r="E292" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292" t="str">
+        <f t="shared" si="4"/>
+        <v>{563,508,10,1,4},</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>563</v>
       </c>
@@ -5422,8 +6603,12 @@
       <c r="E293" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293" t="str">
+        <f t="shared" si="4"/>
+        <v>{563,514,11,0,4},</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>573</v>
       </c>
@@ -5439,8 +6624,12 @@
       <c r="E294" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294" t="str">
+        <f t="shared" si="4"/>
+        <v>{573,517,8,0,4},</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>485</v>
       </c>
@@ -5456,8 +6645,12 @@
       <c r="E295" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295" t="str">
+        <f t="shared" si="4"/>
+        <v>{485,521,11,3,4},</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>522</v>
       </c>
@@ -5473,8 +6666,12 @@
       <c r="E296" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296" t="str">
+        <f t="shared" si="4"/>
+        <v>{522,502,13,0,4},</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>438</v>
       </c>
@@ -5490,8 +6687,12 @@
       <c r="E297" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297" t="str">
+        <f t="shared" si="4"/>
+        <v>{438,480,7,1,4},</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>459</v>
       </c>
@@ -5507,8 +6708,12 @@
       <c r="E298" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298" t="str">
+        <f t="shared" si="4"/>
+        <v>{459,430,7,3,4},</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>362</v>
       </c>
@@ -5524,8 +6729,12 @@
       <c r="E299" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299" t="str">
+        <f t="shared" si="4"/>
+        <v>{362,340,9,3,4},</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>489</v>
       </c>
@@ -5541,8 +6750,12 @@
       <c r="E300" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300" t="str">
+        <f t="shared" si="4"/>
+        <v>{489,492,11,0,4},</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>502</v>
       </c>
@@ -5558,8 +6771,12 @@
       <c r="E301" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301" t="str">
+        <f t="shared" si="4"/>
+        <v>{502,493,2,3,4},</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>515</v>
       </c>
@@ -5575,8 +6792,12 @@
       <c r="E302" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302" t="str">
+        <f t="shared" si="4"/>
+        <v>{515,500,10,0,4},</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>515</v>
       </c>
@@ -5592,8 +6813,12 @@
       <c r="E303" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303" t="str">
+        <f t="shared" si="4"/>
+        <v>{515,488,12,0,4},</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>496</v>
       </c>
@@ -5609,8 +6834,12 @@
       <c r="E304" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304" t="str">
+        <f t="shared" si="4"/>
+        <v>{496,501,5,2,4},</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="4">
         <v>536</v>
       </c>
@@ -5626,8 +6855,12 @@
       <c r="E305" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" t="str">
+        <f t="shared" si="4"/>
+        <v>{536,522,9,0,4},</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="4">
         <v>529</v>
       </c>
@@ -5643,8 +6876,12 @@
       <c r="E306" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306" t="str">
+        <f t="shared" si="4"/>
+        <v>{529,528,7,6,4},</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="4">
         <v>532</v>
       </c>
@@ -5660,8 +6897,12 @@
       <c r="E307" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307" t="str">
+        <f t="shared" si="4"/>
+        <v>{532,567,9,1,4},</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="4">
         <v>539</v>
       </c>
@@ -5677,8 +6918,12 @@
       <c r="E308" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308" t="str">
+        <f t="shared" si="4"/>
+        <v>{539,577,9,0,4},</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="4">
         <v>585</v>
       </c>
@@ -5694,18 +6939,3410 @@
       <c r="E309" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="15">
+      <c r="F309" t="str">
+        <f t="shared" si="4"/>
+        <v>{585,591,11,1,4},</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="E310" s="9"/>
     </row>
-    <row r="311" spans="1:5" ht="15">
+    <row r="311" spans="1:6">
       <c r="E311" s="9"/>
     </row>
-    <row r="312" spans="1:5" ht="15">
+    <row r="312" spans="1:6">
       <c r="E312" s="9"/>
     </row>
-    <row r="313" spans="1:5" ht="15">
+    <row r="313" spans="1:6">
       <c r="E313" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CFACE3-EA1A-4448-861D-0AF454B91705}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B1">
+        <v>3.5</v>
+      </c>
+      <c r="C1">
+        <v>1.4</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G25" si="0">CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
+        <v>{5.1,3.5,1.4,0.3,1},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3.4</v>
+      </c>
+      <c r="C2">
+        <v>1.6</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.4,1.6,0.4,1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.5,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="B4">
+        <v>3.4</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.4,1.4,0.2,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>3.4</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.1,3.4,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.5,1.3,0.3,1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.3</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.3,1.4,0.2,1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="B8">
+        <v>2.8</v>
+      </c>
+      <c r="C8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,2.8,4.1,1.3,2},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="D9">
+        <v>2.1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.8,3,5.5,2.1,3},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5.5</v>
+      </c>
+      <c r="D10">
+        <v>1.8</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="B11">
+        <v>2.8</v>
+      </c>
+      <c r="C11">
+        <v>5.6</v>
+      </c>
+      <c r="D11">
+        <v>2.1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.8,5.6,2.1,3},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3.4</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.4,1.6,0.4,1},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="B14">
+        <v>3.5</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.5,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="B15">
+        <v>3.4</v>
+      </c>
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.4,1.4,0.2,1},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3.5</v>
+      </c>
+      <c r="C16">
+        <v>1.3</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.5,1.3,0.3,1},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3.3</v>
+      </c>
+      <c r="C17">
+        <v>1.4</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.3,1.4,0.2,1},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="B18">
+        <v>2.9</v>
+      </c>
+      <c r="C18">
+        <v>4.2</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,2.9,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="B19">
+        <v>2.8</v>
+      </c>
+      <c r="C19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D19">
+        <v>1.3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,2.8,4.1,1.3,2},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>5.5</v>
+      </c>
+      <c r="D20">
+        <v>2.1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.8,3,5.5,2.1,3},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5.5</v>
+      </c>
+      <c r="D21">
+        <v>1.8</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="B22">
+        <v>2.8</v>
+      </c>
+      <c r="C22">
+        <v>5.6</v>
+      </c>
+      <c r="D22">
+        <v>2.1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.8,5.6,2.1,3},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="B23">
+        <v>2.8</v>
+      </c>
+      <c r="C23">
+        <v>5.6</v>
+      </c>
+      <c r="D23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.8,5.6,2.2,3},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="B24">
+        <v>3.1</v>
+      </c>
+      <c r="C24">
+        <v>5.5</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,3.1,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5.2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.2,2,3},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65A376C-8B78-4C78-A48D-D6E6168D3905}">
+  <dimension ref="A1:F187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="11.44140625" style="7"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>431</v>
+      </c>
+      <c r="B2" s="2">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2">
+        <v>470</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
+        <v>{431,243,470,3,1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>396</v>
+      </c>
+      <c r="B3" s="2">
+        <v>247</v>
+      </c>
+      <c r="C3" s="3">
+        <v>474</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F35" si="0">CONCATENATE("{",A3,",",B3,",",C3,",",D3,",",E3,"}",",")</f>
+        <v>{396,247,474,3,1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>430</v>
+      </c>
+      <c r="B4" s="2">
+        <v>237</v>
+      </c>
+      <c r="C4" s="3">
+        <v>416</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{430,237,416,2,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>464</v>
+      </c>
+      <c r="B5" s="2">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2">
+        <v>314</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>{464,255,314,3,1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>431</v>
+      </c>
+      <c r="B6" s="2">
+        <v>221</v>
+      </c>
+      <c r="C6" s="3">
+        <v>363</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>{431,221,363,2,1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>502</v>
+      </c>
+      <c r="B7" s="2">
+        <v>261</v>
+      </c>
+      <c r="C7" s="3">
+        <v>246</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{502,261,246,2,1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>503</v>
+      </c>
+      <c r="B8" s="2">
+        <v>259</v>
+      </c>
+      <c r="C8" s="2">
+        <v>251</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>{503,259,251,1,1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>506</v>
+      </c>
+      <c r="B9" s="2">
+        <v>261</v>
+      </c>
+      <c r="C9" s="3">
+        <v>222</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>{506,261,222,3,1},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>489</v>
+      </c>
+      <c r="B10" s="2">
+        <v>258</v>
+      </c>
+      <c r="C10" s="3">
+        <v>323</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>{489,258,323,3,1},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>498</v>
+      </c>
+      <c r="B11" s="2">
+        <v>246</v>
+      </c>
+      <c r="C11" s="3">
+        <v>350</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>{498,246,350,2,1},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>487</v>
+      </c>
+      <c r="B12" s="2">
+        <v>266</v>
+      </c>
+      <c r="C12" s="3">
+        <v>327</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>{487,266,327,2,1},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>486</v>
+      </c>
+      <c r="B13" s="2">
+        <v>264</v>
+      </c>
+      <c r="C13" s="2">
+        <v>352</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>{486,264,352,3,1},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>399</v>
+      </c>
+      <c r="B14" s="2">
+        <v>277</v>
+      </c>
+      <c r="C14" s="3">
+        <v>418</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>{399,277,418,5,1},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>503</v>
+      </c>
+      <c r="B15" s="2">
+        <v>265</v>
+      </c>
+      <c r="C15" s="2">
+        <v>413</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>{503,265,413,4,1},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>476</v>
+      </c>
+      <c r="B16" s="2">
+        <v>251</v>
+      </c>
+      <c r="C16" s="3">
+        <v>461</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>{476,251,461,3,1},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>408</v>
+      </c>
+      <c r="B17" s="2">
+        <v>203</v>
+      </c>
+      <c r="C17" s="3">
+        <v>372</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>{408,203,372,3,1},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>425</v>
+      </c>
+      <c r="B18" s="2">
+        <v>208</v>
+      </c>
+      <c r="C18" s="2">
+        <v>361</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>{425,208,361,1,1},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>472</v>
+      </c>
+      <c r="B19" s="2">
+        <v>270</v>
+      </c>
+      <c r="C19" s="2">
+        <v>382</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>{472,270,382,2,1},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>592</v>
+      </c>
+      <c r="B20" s="5">
+        <v>204</v>
+      </c>
+      <c r="C20" s="5">
+        <v>290</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>{592,204,290,2,1},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>627</v>
+      </c>
+      <c r="B21" s="5">
+        <v>252</v>
+      </c>
+      <c r="C21" s="5">
+        <v>197</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>{627,252,197,2,1},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>278</v>
+      </c>
+      <c r="C22" s="5">
+        <v>341</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,278,341,6,1},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>278</v>
+      </c>
+      <c r="C23" s="6">
+        <v>378</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,278,378,4,1},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>351</v>
+      </c>
+      <c r="B24" s="5">
+        <v>470</v>
+      </c>
+      <c r="C24" s="5">
+        <v>397</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>{351,470,397,4,1},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>650</v>
+      </c>
+      <c r="B25" s="5">
+        <v>345</v>
+      </c>
+      <c r="C25" s="5">
+        <v>181</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>{650,345,181,3,1},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>587</v>
+      </c>
+      <c r="B26" s="5">
+        <v>332</v>
+      </c>
+      <c r="C26" s="6">
+        <v>198</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>{587,332,198,4,1},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>578</v>
+      </c>
+      <c r="B27" s="5">
+        <v>340</v>
+      </c>
+      <c r="C27" s="5">
+        <v>178</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>{578,340,178,4,1},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>594</v>
+      </c>
+      <c r="B28" s="5">
+        <v>357</v>
+      </c>
+      <c r="C28" s="5">
+        <v>232</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>{594,357,232,5,1},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>597</v>
+      </c>
+      <c r="B29" s="5">
+        <v>368</v>
+      </c>
+      <c r="C29" s="6">
+        <v>242</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>{597,368,242,3,1},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>502</v>
+      </c>
+      <c r="B30" s="5">
+        <v>262</v>
+      </c>
+      <c r="C30" s="5">
+        <v>217</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>{502,262,217,4,1},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>512</v>
+      </c>
+      <c r="B31" s="5">
+        <v>191</v>
+      </c>
+      <c r="C31" s="5">
+        <v>315</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>{512,191,315,4,1},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>526</v>
+      </c>
+      <c r="B32" s="5">
+        <v>245</v>
+      </c>
+      <c r="C32" s="5">
+        <v>315</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>{526,245,315,4,1},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>529</v>
+      </c>
+      <c r="B33" s="5">
+        <v>236</v>
+      </c>
+      <c r="C33" s="6">
+        <v>319</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>{529,236,319,4,1},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>537</v>
+      </c>
+      <c r="B34" s="5">
+        <v>253</v>
+      </c>
+      <c r="C34" s="5">
+        <v>314</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>{537,253,314,3,1},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4">
+        <v>541</v>
+      </c>
+      <c r="B35" s="5">
+        <v>309</v>
+      </c>
+      <c r="C35" s="5">
+        <v>309</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>{541,309,309,3,1},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
+        <v>595</v>
+      </c>
+      <c r="B36" s="5">
+        <v>385</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>27</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F36:F63" si="1">CONCATENATE("{",A36,",",B36,",",C36,",",D36,",",E36,"}",",")</f>
+        <v>{595,385,0,27,2},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>621</v>
+      </c>
+      <c r="B37" s="5">
+        <v>422</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>31</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>{621,422,0,31,2},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>616</v>
+      </c>
+      <c r="B38" s="5">
+        <v>415</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>27</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>{616,415,0,27,2},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>570</v>
+      </c>
+      <c r="B39" s="5">
+        <v>393</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>{570,393,0,25,2},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>595</v>
+      </c>
+      <c r="B40" s="5">
+        <v>414</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>26</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>{595,414,0,26,2},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>610</v>
+      </c>
+      <c r="B41" s="5">
+        <v>416</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>27</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>{610,416,0,27,2},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>616</v>
+      </c>
+      <c r="B42" s="5">
+        <v>414</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>28</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>{616,414,0,28,2},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>627</v>
+      </c>
+      <c r="B43" s="5">
+        <v>416</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>29</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>{627,416,0,29,2},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>629</v>
+      </c>
+      <c r="B44" s="5">
+        <v>415</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>30</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>{629,415,0,30,2},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>612</v>
+      </c>
+      <c r="B45" s="5">
+        <v>356</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>25</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>{612,356,0,25,2},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>562</v>
+      </c>
+      <c r="B46" s="5">
+        <v>387</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>22</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>{562,387,0,22,2},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>590</v>
+      </c>
+      <c r="B47" s="5">
+        <v>395</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>23</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>{590,395,0,23,2},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>610</v>
+      </c>
+      <c r="B48" s="5">
+        <v>428</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>23</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>{610,428,0,23,2},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>603</v>
+      </c>
+      <c r="B49" s="5">
+        <v>417</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>22</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>{603,417,0,22,2},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4">
+        <v>578</v>
+      </c>
+      <c r="B50" s="5">
+        <v>422</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>25</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>{578,422,0,25,2},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
+        <v>761</v>
+      </c>
+      <c r="B51" s="5">
+        <v>660</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>27</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>{761,660,0,27,2},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4">
+        <v>627</v>
+      </c>
+      <c r="B52" s="5">
+        <v>465</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>29</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>{627,465,0,29,2},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4">
+        <v>704</v>
+      </c>
+      <c r="B53" s="5">
+        <v>577</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>24</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>{704,577,0,24,2},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4">
+        <v>705</v>
+      </c>
+      <c r="B54" s="5">
+        <v>558</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>25</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>{705,558,0,25,2},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4">
+        <v>724</v>
+      </c>
+      <c r="B55" s="5">
+        <v>524</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>24</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>{724,524,0,24,2},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4">
+        <v>701</v>
+      </c>
+      <c r="B56" s="5">
+        <v>575</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>27</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>{701,575,0,27,2},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4">
+        <v>636</v>
+      </c>
+      <c r="B57" s="5">
+        <v>547</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>{636,547,1,27,2},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4">
+        <v>698</v>
+      </c>
+      <c r="B58" s="5">
+        <v>622</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>26</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>{698,622,0,26,2},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4">
+        <v>716</v>
+      </c>
+      <c r="B59" s="5">
+        <v>594</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>25</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>{716,594,1,25,2},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4">
+        <v>729</v>
+      </c>
+      <c r="B60" s="5">
+        <v>633</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>26</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>{729,633,2,26,2},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4">
+        <v>733</v>
+      </c>
+      <c r="B61" s="5">
+        <v>632</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>24</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>{733,632,0,24,2},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
+        <v>770</v>
+      </c>
+      <c r="B62" s="5">
+        <v>586</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>23</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>{770,586,3,23,2},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4">
+        <v>778</v>
+      </c>
+      <c r="B63" s="5">
+        <v>575</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>24</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>{778,575,0,24,2},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
+        <v>508</v>
+      </c>
+      <c r="B64" s="5">
+        <v>225</v>
+      </c>
+      <c r="C64" s="6">
+        <v>404</v>
+      </c>
+      <c r="D64" s="5">
+        <v>15</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" ref="F64:F68" si="2">CONCATENATE("{",A64,",",B64,",",C64,",",D64,",",E64,"}",",")</f>
+        <v>{508,225,404,15,3},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4">
+        <v>511</v>
+      </c>
+      <c r="B65" s="5">
+        <v>222</v>
+      </c>
+      <c r="C65" s="5">
+        <v>404</v>
+      </c>
+      <c r="D65" s="5">
+        <v>15</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="2"/>
+        <v>{511,222,404,15,3},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4">
+        <v>531</v>
+      </c>
+      <c r="B66" s="5">
+        <v>297</v>
+      </c>
+      <c r="C66" s="5">
+        <v>409</v>
+      </c>
+      <c r="D66" s="5">
+        <v>9</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v>{531,297,409,9,3},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4">
+        <v>422</v>
+      </c>
+      <c r="B67" s="5">
+        <v>119</v>
+      </c>
+      <c r="C67" s="5">
+        <v>415</v>
+      </c>
+      <c r="D67" s="5">
+        <v>17</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="2"/>
+        <v>{422,119,415,17,3},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4">
+        <v>469</v>
+      </c>
+      <c r="B68" s="5">
+        <v>77</v>
+      </c>
+      <c r="C68" s="6">
+        <v>334</v>
+      </c>
+      <c r="D68" s="5">
+        <v>9</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v>{469,77,334,9,3},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4">
+        <v>534</v>
+      </c>
+      <c r="B69" s="5">
+        <v>157</v>
+      </c>
+      <c r="C69" s="6">
+        <v>407</v>
+      </c>
+      <c r="D69" s="5">
+        <v>18</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ref="F69:F111" si="3">CONCATENATE("{",A69,",",B69,",",C69,",",D69,",",E69,"}",",")</f>
+        <v>{534,157,407,18,3},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4">
+        <v>539</v>
+      </c>
+      <c r="B70" s="5">
+        <v>170</v>
+      </c>
+      <c r="C70" s="5">
+        <v>410</v>
+      </c>
+      <c r="D70" s="5">
+        <v>17</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>{539,170,410,17,3},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4">
+        <v>546</v>
+      </c>
+      <c r="B71" s="5">
+        <v>66</v>
+      </c>
+      <c r="C71" s="6">
+        <v>395</v>
+      </c>
+      <c r="D71" s="5">
+        <v>11</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>{546,66,395,11,3},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4">
+        <v>412</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42</v>
+      </c>
+      <c r="C72" s="5">
+        <v>296</v>
+      </c>
+      <c r="D72" s="5">
+        <v>11</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>{412,42,296,11,3},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4">
+        <v>549</v>
+      </c>
+      <c r="B73" s="5">
+        <v>106</v>
+      </c>
+      <c r="C73" s="5">
+        <v>260</v>
+      </c>
+      <c r="D73" s="5">
+        <v>12</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>{549,106,260,12,3},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4">
+        <v>575</v>
+      </c>
+      <c r="B74" s="5">
+        <v>121</v>
+      </c>
+      <c r="C74" s="5">
+        <v>247</v>
+      </c>
+      <c r="D74" s="5">
+        <v>11</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>{575,121,247,11,3},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4">
+        <v>539</v>
+      </c>
+      <c r="B75" s="5">
+        <v>91</v>
+      </c>
+      <c r="C75" s="5">
+        <v>372</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>{539,91,372,8,3},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4">
+        <v>601</v>
+      </c>
+      <c r="B76" s="5">
+        <v>130</v>
+      </c>
+      <c r="C76" s="5">
+        <v>255</v>
+      </c>
+      <c r="D76" s="5">
+        <v>14</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>{601,130,255,14,3},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4">
+        <v>584</v>
+      </c>
+      <c r="B77" s="5">
+        <v>107</v>
+      </c>
+      <c r="C77" s="5">
+        <v>351</v>
+      </c>
+      <c r="D77" s="5">
+        <v>10</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>{584,107,351,10,3},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4">
+        <v>600</v>
+      </c>
+      <c r="B78" s="5">
+        <v>183</v>
+      </c>
+      <c r="C78" s="5">
+        <v>289</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>{600,183,289,20,3},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4">
+        <v>649</v>
+      </c>
+      <c r="B79" s="5">
+        <v>308</v>
+      </c>
+      <c r="C79" s="5">
+        <v>251</v>
+      </c>
+      <c r="D79" s="5">
+        <v>18</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>{649,308,251,18,3},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4">
+        <v>625</v>
+      </c>
+      <c r="B80" s="5">
+        <v>350</v>
+      </c>
+      <c r="C80" s="5">
+        <v>238</v>
+      </c>
+      <c r="D80" s="5">
+        <v>17</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>{625,350,238,17,3},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4">
+        <v>547</v>
+      </c>
+      <c r="B81" s="5">
+        <v>282</v>
+      </c>
+      <c r="C81" s="5">
+        <v>352</v>
+      </c>
+      <c r="D81" s="5">
+        <v>21</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>{547,282,352,21,3},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4">
+        <v>503</v>
+      </c>
+      <c r="B82" s="5">
+        <v>340</v>
+      </c>
+      <c r="C82" s="5">
+        <v>389</v>
+      </c>
+      <c r="D82" s="5">
+        <v>22</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>{503,340,389,22,3},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="4">
+        <v>447</v>
+      </c>
+      <c r="B83" s="5">
+        <v>392</v>
+      </c>
+      <c r="C83" s="5">
+        <v>326</v>
+      </c>
+      <c r="D83" s="5">
+        <v>24</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>{447,392,326,24,3},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4">
+        <v>648</v>
+      </c>
+      <c r="B84" s="5">
+        <v>548</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>{648,548,0,2,4},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4">
+        <v>638</v>
+      </c>
+      <c r="B85" s="5">
+        <v>548</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>{638,548,0,0,4},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4">
+        <v>625</v>
+      </c>
+      <c r="B86" s="5">
+        <v>567</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>{625,567,0,0,4},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4">
+        <v>613</v>
+      </c>
+      <c r="B87" s="5">
+        <v>554</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>{613,554,0,0,4},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4">
+        <v>616</v>
+      </c>
+      <c r="B88" s="5">
+        <v>544</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>{616,544,0,0,4},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4">
+        <v>670</v>
+      </c>
+      <c r="B89" s="5">
+        <v>559</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>{670,559,0,0,4},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4">
+        <v>672</v>
+      </c>
+      <c r="B90" s="5">
+        <v>561</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>{672,561,0,1,4},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4">
+        <v>675</v>
+      </c>
+      <c r="B91" s="5">
+        <v>566</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>{675,566,0,1,4},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="4">
+        <v>678</v>
+      </c>
+      <c r="B92" s="5">
+        <v>572</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>{678,572,0,1,4},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="4">
+        <v>673</v>
+      </c>
+      <c r="B93" s="5">
+        <v>582</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>{673,582,0,1,4},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4">
+        <v>669</v>
+      </c>
+      <c r="B94" s="5">
+        <v>581</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>{669,581,0,2,4},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4">
+        <v>589</v>
+      </c>
+      <c r="B95" s="5">
+        <v>624</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>{589,624,0,0,4},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4">
+        <v>670</v>
+      </c>
+      <c r="B96" s="5">
+        <v>611</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>{670,611,0,0,4},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="4">
+        <v>679</v>
+      </c>
+      <c r="B97" s="5">
+        <v>616</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>{679,616,0,0,4},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="4">
+        <v>684</v>
+      </c>
+      <c r="B98" s="5">
+        <v>616</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>{684,616,0,0,4},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="4">
+        <v>680</v>
+      </c>
+      <c r="B99" s="5">
+        <v>615</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>{680,615,0,0,4},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4">
+        <v>684</v>
+      </c>
+      <c r="B100" s="5">
+        <v>618</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>{684,618,0,0,4},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4">
+        <v>693</v>
+      </c>
+      <c r="B101" s="5">
+        <v>633</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>{693,633,0,0,4},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4">
+        <v>677</v>
+      </c>
+      <c r="B102" s="5">
+        <v>628</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>{677,628,0,0,4},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4">
+        <v>683</v>
+      </c>
+      <c r="B103" s="5">
+        <v>629</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>{683,629,0,0,4},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4">
+        <v>686</v>
+      </c>
+      <c r="B104" s="5">
+        <v>625</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>{686,625,0,2,4},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4">
+        <v>623</v>
+      </c>
+      <c r="B105" s="5">
+        <v>562</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>{623,562,0,0,4},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4">
+        <v>571</v>
+      </c>
+      <c r="B106" s="5">
+        <v>488</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>{571,488,0,0,4},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4">
+        <v>611</v>
+      </c>
+      <c r="B107" s="5">
+        <v>482</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>{611,482,0,0,4},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="4">
+        <v>607</v>
+      </c>
+      <c r="B108" s="5">
+        <v>492</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>{607,492,0,0,4},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="4">
+        <v>617</v>
+      </c>
+      <c r="B109" s="5">
+        <v>491</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>{617,491,0,1,4},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4">
+        <v>619</v>
+      </c>
+      <c r="B110" s="5">
+        <v>496</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>{619,496,0,1,4},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="4">
+        <v>617</v>
+      </c>
+      <c r="B111" s="5">
+        <v>505</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>{617,505,0,1,4},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="4"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="4"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="4"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="4"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="4"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="E187" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
